--- a/api.xlsx
+++ b/api.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18528" windowHeight="8292"/>
+    <workbookView windowWidth="18528" windowHeight="7332"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="173">
   <si>
     <t>done</t>
   </si>
@@ -126,7 +126,7 @@
     <t>发送cookie和查询请求，得到个人信息返回</t>
   </si>
   <si>
-    <t>manager(管理者)</t>
+    <t>admin(管理者)</t>
   </si>
   <si>
     <t>authorize_tetser</t>
@@ -333,7 +333,7 @@
     <t>发送疫苗接种信息</t>
   </si>
   <si>
-    <t>user_id,vac_name,vac_num,vac_time,address</t>
+    <t>user_id,vac_id,doc_id</t>
   </si>
   <si>
     <t>发送接种者ID号、自己的工号(cookie)、疫苗的序号等信息，向后台发送一条接种记录</t>
@@ -354,7 +354,7 @@
     <t>发送cookie、试管的编号、检测的结果，后台自动更新对应用户核酸检测的结果和健康码的结果</t>
   </si>
   <si>
-    <t>manager</t>
+    <t>admin</t>
   </si>
   <si>
     <t>健康码申诉处理</t>
@@ -480,7 +480,7 @@
     <t>申诉信息列表</t>
   </si>
   <si>
-    <t>page,page_size,state(未审核/批准/通过),user_id</t>
+    <t>page,page_size,state(未审核/批准/通过)</t>
   </si>
   <si>
     <t>List[appeal_id,user_name,user_id,state]</t>
@@ -708,7 +708,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -723,7 +723,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,10 +1049,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1055,16 +1061,16 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1076,10 +1082,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1100,28 +1106,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1130,19 +1136,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1154,38 +1157,41 @@
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1198,6 +1204,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1264,7 +1276,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1623,15 +1656,16 @@
   <sheetPr/>
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="20.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9" style="4"/>
-    <col min="4" max="5" width="21.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.7" customWidth="1"/>
+    <col min="2" max="2" width="20.875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9" style="6"/>
+    <col min="4" max="5" width="21.5" style="7" customWidth="1"/>
     <col min="6" max="6" width="25.5" customWidth="1"/>
     <col min="7" max="7" width="55.25" customWidth="1"/>
     <col min="8" max="8" width="54.625" customWidth="1"/>
@@ -1639,343 +1673,343 @@
   </cols>
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:9">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="10" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="10" t="s">
+      <c r="H3" s="13"/>
+      <c r="I3" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11" t="s">
+      <c r="H4" s="13"/>
+      <c r="I4" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11" t="s">
+      <c r="H5" s="13"/>
+      <c r="I5" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11" t="s">
+      <c r="G6" s="12"/>
+      <c r="H6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:9">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="2:9">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="17" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="2:9">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15" t="s">
+      <c r="G12" s="17"/>
+      <c r="H12" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="16" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="2:9">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="16" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1983,26 +2017,26 @@
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21" t="s">
+      <c r="G14" s="22"/>
+      <c r="H14" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="22" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2010,152 +2044,155 @@
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25" t="s">
+      <c r="G15" s="26"/>
+      <c r="H15" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="27" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="7" t="s">
+    <row r="16" s="2" customFormat="1" spans="1:9">
+      <c r="A16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11" t="s">
+      <c r="G16" s="22"/>
+      <c r="H16" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="22" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="2:9">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15" t="s">
+      <c r="G17" s="16"/>
+      <c r="H17" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11" t="s">
+      <c r="G18" s="12"/>
+      <c r="H18" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="2:9">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14" t="s">
+      <c r="H19" s="16"/>
+      <c r="I19" s="16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:9">
+    <row r="20" s="2" customFormat="1" ht="16" customHeight="1" spans="1:9">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20" t="s">
+      <c r="H20" s="22"/>
+      <c r="I20" s="22" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2163,495 +2200,498 @@
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20" t="s">
+      <c r="H21" s="22"/>
+      <c r="I21" s="22" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="11" t="s">
+      <c r="H22" s="12"/>
+      <c r="I22" s="13" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="7" t="s">
+    <row r="23" s="4" customFormat="1" spans="1:9">
+      <c r="A23" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="11" t="s">
+      <c r="H23" s="29"/>
+      <c r="I23" s="23" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10" t="s">
+      <c r="H24" s="12"/>
+      <c r="I24" s="12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="7" t="s">
+    <row r="25" s="5" customFormat="1" spans="2:9">
+      <c r="B25" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="11" t="s">
+      <c r="H25" s="33"/>
+      <c r="I25" s="34" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="7" t="s">
+    <row r="26" s="5" customFormat="1" spans="2:9">
+      <c r="B26" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10" t="s">
+      <c r="H26" s="33"/>
+      <c r="I26" s="33" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="2:9">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15" t="s">
+      <c r="H27" s="16"/>
+      <c r="I27" s="17" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="2:9">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15" t="s">
+      <c r="H28" s="16"/>
+      <c r="I28" s="17" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="13" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="I30" s="13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="7" t="s">
+    <row r="31" s="1" customFormat="1" spans="2:9">
+      <c r="B31" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="I31" s="16" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="I32" s="12" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H33" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="I33" s="12" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="I34" s="12" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11" t="s">
+      <c r="G35" s="13"/>
+      <c r="H35" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="I35" s="10" t="s">
+      <c r="I35" s="12" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
-      <c r="B36" s="7" t="s">
+    <row r="36" s="5" customFormat="1" spans="2:9">
+      <c r="B36" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="H36" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="I36" s="11" t="s">
+      <c r="I36" s="34" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="37" ht="34.5" customHeight="1" spans="2:9">
-      <c r="B37" s="7" t="s">
+    <row r="37" s="5" customFormat="1" ht="34.5" customHeight="1" spans="2:9">
+      <c r="B37" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="H37" s="26" t="s">
+      <c r="H37" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="I37" s="11" t="s">
+      <c r="I37" s="34" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="2:9">
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F38" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="G38" s="15" t="s">
+      <c r="G38" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="H38" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="I38" s="15" t="s">
+      <c r="I38" s="17" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="39" ht="36" customHeight="1" spans="8:9">
-      <c r="H39" s="27" t="s">
+      <c r="H39" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="I39" s="6" t="s">
+      <c r="I39" s="8" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="40" ht="31.5" customHeight="1" spans="7:8">
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
     </row>
     <row r="41" spans="7:7">
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="8" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="42" spans="7:7">
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="8" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="43" spans="7:7">
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="8" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="44" spans="7:7">
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="8" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="45" spans="7:7">
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="8" t="s">
         <v>172</v>
       </c>
     </row>

--- a/api.xlsx
+++ b/api.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="175">
   <si>
     <t>done</t>
   </si>
@@ -225,13 +225,13 @@
     <t>发送cookie，得到自己的健康码颜色和编码</t>
   </si>
   <si>
-    <t>show_all_appeal</t>
+    <t>show_all_complain</t>
   </si>
   <si>
     <t>查询健康码申诉</t>
   </si>
   <si>
-    <t>List[appeal_id,user_name,user_id,phone,address,color,reason,state,result_reason]</t>
+    <t>List[complain_id,user_name,user_id,phone,address,color,reason,state,result_reason]</t>
   </si>
   <si>
     <t>发送cookie，返回自己的健康码申诉列表，包括审核结果、申诉内容、批准内容、序列号等</t>
@@ -285,7 +285,7 @@
     <t>发送cookie、场所码信息和时间等信息</t>
   </si>
   <si>
-    <t>health_code_appeal</t>
+    <t>health_code_complain</t>
   </si>
   <si>
     <t>发送健康码申诉</t>
@@ -297,13 +297,13 @@
     <t>发送cookie、健康码申诉内容</t>
   </si>
   <si>
-    <t>health_appeal_revoke</t>
+    <t>health_complain_revoke</t>
   </si>
   <si>
     <t>发送健康码申诉撤销</t>
   </si>
   <si>
-    <t>appeal_id</t>
+    <t>complain_id</t>
   </si>
   <si>
     <t>发送cookie、健康码申诉序号和撤销请求</t>
@@ -327,132 +327,138 @@
     <t>sampler</t>
   </si>
   <si>
+    <t>vaccine_info</t>
+  </si>
+  <si>
+    <t>发送疫苗接种信息</t>
+  </si>
+  <si>
+    <t>user_id,vac_id,doc_id</t>
+  </si>
+  <si>
+    <t>发送接种者ID号、自己的工号(cookie)、疫苗的序号等信息，向后台发送一条接种记录</t>
+  </si>
+  <si>
+    <t>detector(检测者)</t>
+  </si>
+  <si>
+    <t>detect_result</t>
+  </si>
+  <si>
+    <t>核酸结果录入</t>
+  </si>
+  <si>
+    <t>tube_id,rna_result,report_time</t>
+  </si>
+  <si>
+    <t>发送cookie、试管的编号、检测的结果，后台自动更新对应用户核酸检测的结果和健康码的结果</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>deal_complain</t>
+  </si>
+  <si>
+    <t>健康码申诉处理</t>
+  </si>
+  <si>
+    <t>complain_id,result,reply</t>
+  </si>
+  <si>
+    <t>发送cookie、申诉编号、申诉结果、申诉处理理由等，后台保存记录并修改用户健康码</t>
+  </si>
+  <si>
+    <t>health_code_change</t>
+  </si>
+  <si>
+    <t>健康码手动转码</t>
+  </si>
+  <si>
+    <t>user_id,color,reason,time</t>
+  </si>
+  <si>
+    <t>发送cookie、用户的ID号、转变的码颜色、转变的理由等，后台保存和修改健康码</t>
+  </si>
+  <si>
+    <t>detect_info_change</t>
+  </si>
+  <si>
+    <t>修改核酸检测点信息</t>
+  </si>
+  <si>
+    <t>rna_id,coordinate,work_time,rna_name</t>
+  </si>
+  <si>
+    <t>发送cookie、核酸点的ID号、修改后的地点、修改的时间等，后台修改数据</t>
+  </si>
+  <si>
+    <t>detect_site_create</t>
+  </si>
+  <si>
+    <t>新建核酸检测点</t>
+  </si>
+  <si>
+    <t>coordinate,work_time,rna_name</t>
+  </si>
+  <si>
+    <t>发送cookie、核酸点的地点、时间等信息，后台新建核酸检测点</t>
+  </si>
+  <si>
+    <t>user_list</t>
+  </si>
+  <si>
+    <t>用户列表</t>
+  </si>
+  <si>
+    <t>page,page_size,color</t>
+  </si>
+  <si>
+    <t>List[user_id,user_name]</t>
+  </si>
+  <si>
+    <t>发送cookie、用户的筛选信息，得到用户id列表</t>
+  </si>
+  <si>
+    <t>user_info</t>
+  </si>
+  <si>
+    <t>用户基本信息查询</t>
+  </si>
+  <si>
+    <t>发送cookie，发送基本信息查询请求，得到满足要求的用户个人信息</t>
+  </si>
+  <si>
+    <t>trace_info</t>
+  </si>
+  <si>
+    <t>用户行程信息查询</t>
+  </si>
+  <si>
+    <t>发送cookie、用户ID，发送行程信息查询请求，权限审核后得到用户行程码和场所码信息</t>
+  </si>
+  <si>
+    <t>health_code_info</t>
+  </si>
+  <si>
+    <t>用户健康码信息查询</t>
+  </si>
+  <si>
+    <t>color,List[state_change,reason,time]</t>
+  </si>
+  <si>
+    <t>发送cookie、用户ID，发送健康码转码信息查询请求，权限审核后得到用户转码健康码信息</t>
+  </si>
+  <si>
+    <t>核酸检测信息查询</t>
+  </si>
+  <si>
+    <t>发送cookie和用户ID，发送核酸检测信息查询请求，权限审核后得到用户的核酸检测结果</t>
+  </si>
+  <si>
     <t>vaccina_info</t>
   </si>
   <si>
-    <t>发送疫苗接种信息</t>
-  </si>
-  <si>
-    <t>user_id,vac_id,doc_id</t>
-  </si>
-  <si>
-    <t>发送接种者ID号、自己的工号(cookie)、疫苗的序号等信息，向后台发送一条接种记录</t>
-  </si>
-  <si>
-    <t>detector(检测者)</t>
-  </si>
-  <si>
-    <t>detect_result</t>
-  </si>
-  <si>
-    <t>核酸结果录入</t>
-  </si>
-  <si>
-    <t>tube_id,rna_result,report_time</t>
-  </si>
-  <si>
-    <t>发送cookie、试管的编号、检测的结果，后台自动更新对应用户核酸检测的结果和健康码的结果</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>健康码申诉处理</t>
-  </si>
-  <si>
-    <t>appeal_id,state,result_reason</t>
-  </si>
-  <si>
-    <t>发送cookie、申诉编号、申诉结果、申诉处理理由等，后台保存记录并修改用户健康码</t>
-  </si>
-  <si>
-    <t>health_code_change</t>
-  </si>
-  <si>
-    <t>健康码手动转码</t>
-  </si>
-  <si>
-    <t>user_id,color,reason,time</t>
-  </si>
-  <si>
-    <t>发送cookie、用户的ID号、转变的码颜色、转变的理由等，后台保存和修改健康码</t>
-  </si>
-  <si>
-    <t>detect_info_change</t>
-  </si>
-  <si>
-    <t>修改核酸检测点信息</t>
-  </si>
-  <si>
-    <t>rna_id,coordinate,work_time,rna_name</t>
-  </si>
-  <si>
-    <t>发送cookie、核酸点的ID号、修改后的地点、修改的时间等，后台修改数据</t>
-  </si>
-  <si>
-    <t>detect_site_create</t>
-  </si>
-  <si>
-    <t>新建核酸检测点</t>
-  </si>
-  <si>
-    <t>coordinate,work_time,rna_name</t>
-  </si>
-  <si>
-    <t>发送cookie、核酸点的地点、时间等信息，后台新建核酸检测点</t>
-  </si>
-  <si>
-    <t>user_list</t>
-  </si>
-  <si>
-    <t>用户列表</t>
-  </si>
-  <si>
-    <t>page,page_size,color</t>
-  </si>
-  <si>
-    <t>List[user_id,user_name]</t>
-  </si>
-  <si>
-    <t>发送cookie、用户的筛选信息，得到用户id列表</t>
-  </si>
-  <si>
-    <t>user_info</t>
-  </si>
-  <si>
-    <t>用户基本信息查询</t>
-  </si>
-  <si>
-    <t>发送cookie，发送基本信息查询请求，得到满足要求的用户个人信息</t>
-  </si>
-  <si>
-    <t>trace_info</t>
-  </si>
-  <si>
-    <t>用户行程信息查询</t>
-  </si>
-  <si>
-    <t>发送cookie、用户ID，发送行程信息查询请求，权限审核后得到用户行程码和场所码信息</t>
-  </si>
-  <si>
-    <t>health_code_info</t>
-  </si>
-  <si>
-    <t>用户健康码信息查询</t>
-  </si>
-  <si>
-    <t>color,List[state_change,reason,time]</t>
-  </si>
-  <si>
-    <t>发送cookie、用户ID，发送健康码转码信息查询请求，权限审核后得到用户转码健康码信息</t>
-  </si>
-  <si>
-    <t>核酸检测信息查询</t>
-  </si>
-  <si>
-    <t>发送cookie和用户ID，发送核酸检测信息查询请求，权限审核后得到用户的核酸检测结果</t>
-  </si>
-  <si>
     <t>疫苗接种信息查询</t>
   </si>
   <si>
@@ -474,31 +480,31 @@
     <t>发送cookie，发送权限查询请求，返回自己分配的特权人员的信息</t>
   </si>
   <si>
-    <t>appeal_list</t>
+    <t>complain_list</t>
   </si>
   <si>
     <t>申诉信息列表</t>
   </si>
   <si>
-    <t>page,page_size,state(未审核/批准/通过)</t>
-  </si>
-  <si>
-    <t>List[appeal_id,user_name,user_id,state]</t>
+    <t>page,page_size,result(未审核/批准/通过)</t>
+  </si>
+  <si>
+    <t>List[complain_id,user_name,user_id,state]</t>
   </si>
   <si>
     <t>发送cookie和申诉状态筛选，后台验证身份后返回申诉列表</t>
   </si>
   <si>
-    <t>appeal_info</t>
+    <t>complain_info</t>
   </si>
   <si>
     <t>申诉信息查询</t>
   </si>
   <si>
-    <t xml:space="preserve">appeal_id </t>
-  </si>
-  <si>
-    <t>appeal_id,user_name,user_id,phone,address,color,reason,state,result_reason</t>
+    <t xml:space="preserve">complain_id </t>
+  </si>
+  <si>
+    <t>complain_id,user_name,user_id,phone,address,color,reason,state,result_reason</t>
   </si>
   <si>
     <t>发送cookie和申诉编号，返回申诉信息</t>
@@ -537,7 +543,7 @@
     <t>color(红/黄/绿）0/1/2</t>
   </si>
   <si>
-    <t>rna_result(阴/阳) 0/1</t>
+    <t>rna_result(未出/阴/阳) 0/1/2</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1276,12 +1282,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1296,9 +1296,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1656,8 +1653,8 @@
   <sheetPr/>
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A25" sqref="$A25:$XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1665,7 +1662,8 @@
     <col min="1" max="1" width="10.7" customWidth="1"/>
     <col min="2" max="2" width="20.875" style="6" customWidth="1"/>
     <col min="3" max="3" width="9" style="6"/>
-    <col min="4" max="5" width="21.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="23.1" style="7" customWidth="1"/>
     <col min="6" max="6" width="25.5" customWidth="1"/>
     <col min="7" max="7" width="55.25" customWidth="1"/>
     <col min="8" max="8" width="54.625" customWidth="1"/>
@@ -2251,7 +2249,7 @@
       </c>
     </row>
     <row r="23" s="4" customFormat="1" spans="1:9">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="19" t="s">
@@ -2272,7 +2270,7 @@
       <c r="G23" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="29"/>
+      <c r="H23" s="23"/>
       <c r="I23" s="23" t="s">
         <v>105</v>
       </c>
@@ -2304,52 +2302,55 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" s="5" customFormat="1" spans="2:9">
-      <c r="B25" s="30" t="s">
+    <row r="25" s="2" customFormat="1" spans="1:9">
+      <c r="A25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="E25" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="33" t="s">
+      <c r="E25" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="G25" s="34" t="s">
+      <c r="F25" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="34" t="s">
+      <c r="G25" s="23" t="s">
         <v>114</v>
       </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="23" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="26" s="5" customFormat="1" spans="2:9">
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="F26" s="33" t="s">
+      <c r="E26" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="G26" s="34" t="s">
+      <c r="F26" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33" t="s">
+      <c r="G26" s="32" t="s">
         <v>118</v>
+      </c>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="2:9">
@@ -2363,17 +2364,17 @@
         <v>111</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H27" s="16"/>
       <c r="I27" s="17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="2:9">
@@ -2387,17 +2388,17 @@
         <v>111</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="2:9">
@@ -2411,19 +2412,19 @@
         <v>111</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -2437,10 +2438,10 @@
         <v>111</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>38</v>
@@ -2449,7 +2450,7 @@
         <v>28</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="2:9">
@@ -2463,10 +2464,10 @@
         <v>111</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G31" s="17" t="s">
         <v>38</v>
@@ -2475,7 +2476,7 @@
         <v>78</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="2:9">
@@ -2489,19 +2490,19 @@
         <v>111</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G32" s="13" t="s">
         <v>38</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="2:9">
@@ -2518,7 +2519,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G33" s="13" t="s">
         <v>38</v>
@@ -2527,7 +2528,7 @@
         <v>83</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="2:9">
@@ -2541,19 +2542,19 @@
         <v>111</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G34" s="13" t="s">
         <v>38</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="2:9">
@@ -2567,69 +2568,75 @@
         <v>111</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" s="5" customFormat="1" spans="2:9">
-      <c r="B36" s="30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="1:9">
+      <c r="A36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="E36" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="F36" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="G36" s="34" t="s">
+      <c r="E36" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="H36" s="34" t="s">
+      <c r="F36" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="I36" s="34" t="s">
+      <c r="G36" s="23" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="37" s="5" customFormat="1" ht="34.5" customHeight="1" spans="2:9">
-      <c r="B37" s="30" t="s">
+      <c r="H36" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" s="2" customFormat="1" ht="34.5" customHeight="1" spans="1:9">
+      <c r="A37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="F37" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="G37" s="34" t="s">
+      <c r="E37" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="H37" s="35" t="s">
+      <c r="F37" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="I37" s="34" t="s">
+      <c r="G37" s="23" t="s">
         <v>160</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="2:9">
@@ -2643,27 +2650,27 @@
         <v>111</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I38" s="17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" ht="36" customHeight="1" spans="8:9">
-      <c r="H39" s="36" t="s">
-        <v>166</v>
+      <c r="H39" s="33" t="s">
+        <v>168</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" ht="31.5" customHeight="1" spans="7:8">
@@ -2672,27 +2679,27 @@
     </row>
     <row r="41" spans="7:7">
       <c r="G41" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="7:7">
       <c r="G42" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="7:7">
       <c r="G43" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="7:7">
       <c r="G44" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="7:7">
       <c r="G45" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/api.xlsx
+++ b/api.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="175">
   <si>
     <t>done</t>
   </si>
@@ -405,7 +405,7 @@
     <t>发送cookie、核酸点的地点、时间等信息，后台新建核酸检测点</t>
   </si>
   <si>
-    <t>user_list</t>
+    <t>user_color_list</t>
   </si>
   <si>
     <t>用户列表</t>
@@ -462,7 +462,7 @@
     <t>疫苗接种信息查询</t>
   </si>
   <si>
-    <t>List[vac_num,name,time,address]</t>
+    <t>List[vacc_id,name,time]</t>
   </si>
   <si>
     <t>发送cookie和用户ID，发送疫苗接种信息查询的请求，权限审核后得到用户的疫苗接种结果</t>
@@ -714,7 +714,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -730,12 +730,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,10 +1049,10 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1067,16 +1061,16 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1088,52 +1082,52 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1142,16 +1136,19 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1163,41 +1160,38 @@
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1213,9 +1207,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1281,21 +1272,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1653,17 +1629,17 @@
   <sheetPr/>
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A25" sqref="$A25:$XFD25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A33" sqref="$A33:$XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="10.7" customWidth="1"/>
-    <col min="2" max="2" width="20.875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9" style="6"/>
-    <col min="4" max="4" width="21.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="23.1" style="7" customWidth="1"/>
+    <col min="2" max="2" width="20.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5"/>
+    <col min="4" max="4" width="21.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="23.1" style="6" customWidth="1"/>
     <col min="6" max="6" width="25.5" customWidth="1"/>
     <col min="7" max="7" width="55.25" customWidth="1"/>
     <col min="8" max="8" width="54.625" customWidth="1"/>
@@ -1671,343 +1647,343 @@
   </cols>
   <sheetData>
     <row r="1" ht="32.25" customHeight="1" spans="1:9">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="12" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="12" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13" t="s">
+      <c r="G6" s="11"/>
+      <c r="H6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:9">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="2:9">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="16" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="2:9">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17" t="s">
+      <c r="G12" s="16"/>
+      <c r="H12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="2:9">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="15" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2015,26 +1991,26 @@
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23" t="s">
+      <c r="G14" s="21"/>
+      <c r="H14" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="21" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2042,26 +2018,26 @@
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="27" t="s">
+      <c r="G15" s="25"/>
+      <c r="H15" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="27" t="s">
+      <c r="I15" s="26" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2069,101 +2045,101 @@
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23" t="s">
+      <c r="G16" s="21"/>
+      <c r="H16" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="21" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="2:9">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17" t="s">
+      <c r="G17" s="15"/>
+      <c r="H17" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13" t="s">
+      <c r="G18" s="11"/>
+      <c r="H18" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="2:9">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16" t="s">
+      <c r="H19" s="15"/>
+      <c r="I19" s="15" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2171,26 +2147,26 @@
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22" t="s">
+      <c r="H20" s="21"/>
+      <c r="I20" s="21" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2198,53 +2174,53 @@
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22" t="s">
+      <c r="H21" s="21"/>
+      <c r="I21" s="21" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="13" t="s">
+      <c r="H22" s="11"/>
+      <c r="I22" s="12" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2252,53 +2228,53 @@
       <c r="A23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23" t="s">
+      <c r="H23" s="22"/>
+      <c r="I23" s="22" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12" t="s">
+      <c r="H24" s="11"/>
+      <c r="I24" s="11" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2306,278 +2282,299 @@
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23" t="s">
+      <c r="H25" s="21"/>
+      <c r="I25" s="22" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="26" s="5" customFormat="1" spans="2:9">
-      <c r="B26" s="28" t="s">
+    <row r="26" s="2" customFormat="1" spans="1:9">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="F26" s="31" t="s">
+      <c r="F26" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="G26" s="32" t="s">
+      <c r="G26" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31" t="s">
+      <c r="H26" s="21"/>
+      <c r="I26" s="21" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="2:9">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="17" t="s">
+      <c r="H27" s="15"/>
+      <c r="I27" s="16" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="2:9">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G28" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="17" t="s">
+      <c r="H28" s="15"/>
+      <c r="I28" s="16" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="9" t="s">
+    <row r="29" s="2" customFormat="1" spans="1:9">
+      <c r="A29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="I29" s="22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="9" t="s">
+    <row r="30" s="2" customFormat="1" spans="1:9">
+      <c r="A30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I30" s="13" t="s">
+      <c r="I30" s="22" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="2:9">
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F31" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="17" t="s">
+      <c r="H31" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I31" s="16" t="s">
+      <c r="I31" s="15" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="9" t="s">
+    <row r="32" s="2" customFormat="1" spans="1:9">
+      <c r="A32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H32" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="9" t="s">
+    <row r="33" s="2" customFormat="1" spans="1:9">
+      <c r="A33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="H33" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="I33" s="12" t="s">
+      <c r="I33" s="21" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="9" t="s">
+    <row r="34" s="2" customFormat="1" spans="1:9">
+      <c r="A34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="I34" s="21" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="9" t="s">
+    <row r="35" s="2" customFormat="1" spans="1:9">
+      <c r="A35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13" t="s">
+      <c r="G35" s="22"/>
+      <c r="H35" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="I35" s="12" t="s">
+      <c r="I35" s="21" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2585,28 +2582,28 @@
       <c r="A36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="G36" s="23" t="s">
+      <c r="G36" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="H36" s="23" t="s">
+      <c r="H36" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="I36" s="23" t="s">
+      <c r="I36" s="22" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2614,91 +2611,91 @@
       <c r="A37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="F37" s="22" t="s">
+      <c r="F37" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="G37" s="23" t="s">
+      <c r="G37" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="H37" s="27" t="s">
+      <c r="H37" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="I37" s="23" t="s">
+      <c r="I37" s="22" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="2:9">
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="F38" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="G38" s="17" t="s">
+      <c r="G38" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="H38" s="17" t="s">
+      <c r="H38" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="I38" s="17" t="s">
+      <c r="I38" s="16" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="39" ht="36" customHeight="1" spans="8:9">
-      <c r="H39" s="33" t="s">
+      <c r="H39" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="I39" s="8" t="s">
+      <c r="I39" s="7" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="40" ht="31.5" customHeight="1" spans="7:8">
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
     </row>
     <row r="41" spans="7:7">
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="7" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="42" spans="7:7">
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="7" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="43" spans="7:7">
-      <c r="G43" s="8" t="s">
+      <c r="G43" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="44" spans="7:7">
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="7" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="45" spans="7:7">
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="7" t="s">
         <v>174</v>
       </c>
     </row>

--- a/api.xlsx
+++ b/api.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$I$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$I$38</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="170">
   <si>
     <t>done</t>
   </si>
@@ -177,7 +177,7 @@
     <t>核酸检测点信息查询</t>
   </si>
   <si>
-    <t>rna_id</t>
+    <t>place_id</t>
   </si>
   <si>
     <t>rna_name,address,work_time</t>
@@ -186,18 +186,6 @@
     <t>发送具体的核酸检测的ID返回详细的地址信息、工作时间信息等</t>
   </si>
   <si>
-    <t>site_code</t>
-  </si>
-  <si>
-    <t>查询生成的场所码信息</t>
-  </si>
-  <si>
-    <t>List[site_id,coordinate,site_name,address]</t>
-  </si>
-  <si>
-    <t>发送cookie和查询请求，得到自己注册的场所码的信息，包括地点位置、申请时间等</t>
-  </si>
-  <si>
     <t>site_register</t>
   </si>
   <si>
@@ -207,7 +195,7 @@
     <t>coordinate,site_name,address</t>
   </si>
   <si>
-    <t>二维码，扫出来site_id</t>
+    <t>二维码，扫出来place_id</t>
   </si>
   <si>
     <t>发送cookie和申请的场所地址，后台返回生成好的场所码</t>
@@ -255,7 +243,7 @@
     <t>查询行程码信息</t>
   </si>
   <si>
-    <t>List[address]</t>
+    <t>List[address, time]</t>
   </si>
   <si>
     <t>发送cookie，返回自己的行程码信息</t>
@@ -282,6 +270,9 @@
     <t>发送场所码扫描信息</t>
   </si>
   <si>
+    <t>place,time</t>
+  </si>
+  <si>
     <t>发送cookie、场所码信息和时间等信息</t>
   </si>
   <si>
@@ -387,7 +378,7 @@
     <t>修改核酸检测点信息</t>
   </si>
   <si>
-    <t>rna_id,coordinate,work_time,rna_name</t>
+    <t>place_id, start_time, end_time, manager_id</t>
   </si>
   <si>
     <t>发送cookie、核酸点的ID号、修改后的地点、修改的时间等，后台修改数据</t>
@@ -399,9 +390,6 @@
     <t>新建核酸检测点</t>
   </si>
   <si>
-    <t>coordinate,work_time,rna_name</t>
-  </si>
-  <si>
     <t>发送cookie、核酸点的地点、时间等信息，后台新建核酸检测点</t>
   </si>
   <si>
@@ -427,9 +415,6 @@
   </si>
   <si>
     <t>发送cookie，发送基本信息查询请求，得到满足要求的用户个人信息</t>
-  </si>
-  <si>
-    <t>trace_info</t>
   </si>
   <si>
     <t>用户行程信息查询</t>
@@ -1243,35 +1228,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1627,10 +1612,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A33" sqref="$A33:$XFD33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A30" sqref="$A30:$XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1937,107 +1922,113 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="2:9">
-      <c r="B12" s="13" t="s">
+    <row r="12" s="2" customFormat="1" spans="1:9">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:9">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D13" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="2:9">
-      <c r="B13" s="13" t="s">
+      <c r="E13" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" ht="16" customHeight="1" spans="1:9">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="14" t="s">
+      <c r="C14" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="1:9">
-      <c r="A14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="18" t="s">
+      <c r="E14" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:9">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" s="3" customFormat="1" ht="45.95" customHeight="1" spans="1:9">
-      <c r="A15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26" t="s">
+      <c r="G15" s="20"/>
+      <c r="H15" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="20" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2045,291 +2036,294 @@
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22" t="s">
+      <c r="G16" s="20"/>
+      <c r="H16" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="2:9">
-      <c r="B17" s="13" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="1:9">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E18" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="16" customHeight="1" spans="1:9">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:9">
+      <c r="A20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="2:9">
-      <c r="B19" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="13" t="s">
+      <c r="E21" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" s="4" customFormat="1" spans="1:9">
+      <c r="A22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="16" customHeight="1" spans="1:9">
-      <c r="A20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="18" t="s">
+      <c r="D22" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="1:9">
-      <c r="A21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="D23" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:9">
+      <c r="A24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" s="4" customFormat="1" spans="1:9">
-      <c r="A23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F24" s="11" t="s">
+      <c r="D24" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="E24" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11" t="s">
+      <c r="F24" s="20" t="s">
         <v>110</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="21" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:9">
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" s="21" t="s">
+      <c r="D25" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="F25" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="22" t="s">
+      <c r="G25" s="21" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="1:9">
-      <c r="A26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="18" t="s">
+      <c r="H25" s="20"/>
+      <c r="I25" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="2:9">
+      <c r="B26" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="F26" s="21" t="s">
+      <c r="D26" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="F26" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21" t="s">
+      <c r="G26" s="16" t="s">
         <v>119</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="2:9">
@@ -2340,367 +2334,346 @@
         <v>11</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>120</v>
+        <v>108</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>121</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="16" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="2:9">
-      <c r="B28" s="13" t="s">
+    <row r="28" s="2" customFormat="1" spans="1:9">
+      <c r="A28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E28" s="17" t="s">
+      <c r="C28" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="16" t="s">
+      <c r="H28" s="21" t="s">
         <v>127</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="29" s="2" customFormat="1" spans="1:9">
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="19" t="s">
-        <v>111</v>
+      <c r="D29" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="F29" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="F29" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="H29" s="22" t="s">
+      <c r="G29" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="21" t="s">
         <v>131</v>
-      </c>
-      <c r="I29" s="22" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:9">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E30" s="20" t="s">
+      <c r="D30" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I30" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="F30" s="21" t="s">
+    </row>
+    <row r="31" s="2" customFormat="1" spans="1:9">
+      <c r="A31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="F31" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="2:9">
-      <c r="B31" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E31" s="17" t="s">
+      <c r="H31" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="I31" s="20" t="s">
         <v>137</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" spans="1:9">
       <c r="A32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" s="20" t="s">
+      <c r="D32" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" s="20" t="s">
         <v>139</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="I32" s="21" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" spans="1:9">
       <c r="A33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="19" t="s">
-        <v>111</v>
+      <c r="D33" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="I33" s="20" t="s">
         <v>143</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="I33" s="21" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:9">
       <c r="A34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E34" s="20" t="s">
+      <c r="D34" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="G34" s="21"/>
+      <c r="H34" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="G34" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="22" t="s">
+      <c r="I34" s="20" t="s">
         <v>147</v>
-      </c>
-      <c r="I34" s="21" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:9">
       <c r="A35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E35" s="20" t="s">
+      <c r="D35" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="G35" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22" t="s">
+      <c r="H35" s="21" t="s">
         <v>151</v>
       </c>
       <c r="I35" s="21" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="1" spans="1:9">
+    <row r="36" s="2" customFormat="1" ht="34.5" customHeight="1" spans="1:9">
       <c r="A36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="19" t="s">
-        <v>111</v>
+      <c r="D36" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="F36" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="G36" s="22" t="s">
+      <c r="G36" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="H36" s="22" t="s">
+      <c r="H36" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="I36" s="22" t="s">
+      <c r="I36" s="21" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="18" t="s">
+    <row r="37" s="1" customFormat="1" spans="2:9">
+      <c r="B37" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E37" s="20" t="s">
+      <c r="C37" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="F37" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="G37" s="22" t="s">
+      <c r="G37" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="H37" s="26" t="s">
+      <c r="H37" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="I37" s="22" t="s">
+      <c r="I37" s="16" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" spans="2:9">
-      <c r="B38" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="E38" s="14" t="s">
+    <row r="38" ht="36" customHeight="1" spans="8:9">
+      <c r="H38" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="I38" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G38" s="16" t="s">
+    </row>
+    <row r="39" ht="31.5" customHeight="1" spans="7:8">
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="7:7">
+      <c r="G40" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H38" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="I38" s="16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="39" ht="36" customHeight="1" spans="8:9">
-      <c r="H39" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="40" ht="31.5" customHeight="1" spans="7:8">
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
     </row>
     <row r="41" spans="7:7">
       <c r="G41" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="7:7">
       <c r="G42" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="7:7">
       <c r="G43" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="7:7">
       <c r="G44" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="45" spans="7:7">
-      <c r="G45" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:I39">
+  <autoFilter ref="B1:I38">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="C2">
